--- a/src/test/resources/resource/accountdetails.xlsx
+++ b/src/test/resources/resource/accountdetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12495" windowHeight="3555"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccount" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:F10"/>
 </workbook>
 </file>
 
@@ -60,7 +61,7 @@
     <t>456gmail.com</t>
   </si>
   <si>
-    <t>yandra@gmail.com</t>
+    <t>sindhu@gmail.com</t>
   </si>
 </sst>
 </file>
